--- a/biology/Botanique/Château_de_Jussy/Château_de_Jussy.xlsx
+++ b/biology/Botanique/Château_de_Jussy/Château_de_Jussy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Jussy</t>
+          <t>Château_de_Jussy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Jussy est situé à Jussy-Champagne dans le département du Cher, en région Centre-Val de Loire[2].
+Le château de Jussy est situé à Jussy-Champagne dans le département du Cher, en région Centre-Val de Loire.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Jussy</t>
+          <t>Château_de_Jussy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La construction du château débuta vers 1590, à l'initiative des seigneurs de Gamaches[3], originaires du Vexin, établis en Berry depuis des alliances avec les familles Foucaud (sires de Sury et  de Lourroy/Laurois) et de Blet (sires de Quincampoix et de Rémond) au XVe siècle. L'héritière Léonore (ou Charlotte-Eléonore) de Gamaches († 1710 ; épouse d'Henri de Chevenon de Bigny) vendit en 1702 le château, faute de moyens, à la famille de Gaucourt (lieutenants en Berry, sires de Bouesses, Gournay, Cluys), qui céda à son tour le domaine en 1759 à Philippe-Pierre Labbé de Chamgrand et son épouse Marie-Madeleine Agard de Morogues et Maupas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction du château débuta vers 1590, à l'initiative des seigneurs de Gamaches, originaires du Vexin, établis en Berry depuis des alliances avec les familles Foucaud (sires de Sury et  de Lourroy/Laurois) et de Blet (sires de Quincampoix et de Rémond) au XVe siècle. L'héritière Léonore (ou Charlotte-Eléonore) de Gamaches († 1710 ; épouse d'Henri de Chevenon de Bigny) vendit en 1702 le château, faute de moyens, à la famille de Gaucourt (lieutenants en Berry, sires de Bouesses, Gournay, Cluys), qui céda à son tour le domaine en 1759 à Philippe-Pierre Labbé de Chamgrand et son épouse Marie-Madeleine Agard de Morogues et Maupas.
 La famille Ponton d'Amécourt, actuelle propriétaire des lieux, entreprend d'achever le château, de le restaurer et de le moderniser.
-Les façades et toitures de l'édifice sont classées au titre des monuments historiques en 1946[2]. Les autres parties du château (intérieurs, communs, douves, jardin, parc, clôture) sont inscrites en 2015[4].
+Les façades et toitures de l'édifice sont classées au titre des monuments historiques en 1946. Les autres parties du château (intérieurs, communs, douves, jardin, parc, clôture) sont inscrites en 2015.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Jussy</t>
+          <t>Château_de_Jussy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Architecture et décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit sur un plan en forme de "H", le château de Jussy correspond au style Louis XIII, avec ses façades ornées de brique et de pierre.
 À noter, deux galeries à arceaux donnant sur la cour sont dues à l'architecte Jean Lejuge, une cheminée monumentale incrustée de marbre dans la salle à manger, une bibliothèque ainsi qu'une chapelle. Parmi les améliorations apportées au XVIIIe par la famille Labbé de Chamgrand, se trouve le décor des appartements aux riches boiseries et trumeaux.
-Le château, entouré d'un vaste jardin à la française, est entièrement meublé avec du mobilier d'époque des XVIIe et XVIIIe siècles, et orné de tapisseries et de tableaux anciens. Il abrite en outre une collection de costumes du XIXe[5].
+Le château, entouré d'un vaste jardin à la française, est entièrement meublé avec du mobilier d'époque des XVIIe et XVIIIe siècles, et orné de tapisseries et de tableaux anciens. Il abrite en outre une collection de costumes du XIXe.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Jussy</t>
+          <t>Château_de_Jussy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
